--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220420_110217.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220420_110217.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="273">
   <si>
     <t>사이트</t>
   </si>
@@ -803,6 +803,9 @@
   </si>
   <si>
     <t>WM</t>
+  </si>
+  <si>
+    <t>마크툽컴퍼니</t>
   </si>
   <si>
     <t>예스아이엠엔터테인먼트</t>
@@ -2824,6 +2827,12 @@
       <c r="F63" t="s">
         <v>212</v>
       </c>
+      <c r="G63" t="s">
+        <v>263</v>
+      </c>
+      <c r="H63" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
@@ -3001,7 +3010,7 @@
         <v>217</v>
       </c>
       <c r="G70" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H70" t="s">
         <v>244</v>
@@ -3105,7 +3114,7 @@
         <v>221</v>
       </c>
       <c r="G74" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H74" t="s">
         <v>244</v>
@@ -3131,10 +3140,10 @@
         <v>83</v>
       </c>
       <c r="G75" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H75" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3183,7 +3192,7 @@
         <v>223</v>
       </c>
       <c r="G77" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H77" t="s">
         <v>244</v>
@@ -3208,6 +3217,12 @@
       <c r="F78" t="s">
         <v>86</v>
       </c>
+      <c r="G78" t="s">
+        <v>246</v>
+      </c>
+      <c r="H78" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
@@ -3229,7 +3244,7 @@
         <v>87</v>
       </c>
       <c r="G79" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H79" t="s">
         <v>244</v>
@@ -3254,6 +3269,12 @@
       <c r="F80" t="s">
         <v>224</v>
       </c>
+      <c r="G80" t="s">
+        <v>263</v>
+      </c>
+      <c r="H80" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" t="s">
@@ -3353,7 +3374,7 @@
         <v>92</v>
       </c>
       <c r="G84" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H84" t="s">
         <v>244</v>
@@ -3379,7 +3400,7 @@
         <v>93</v>
       </c>
       <c r="G85" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H85" t="s">
         <v>244</v>
@@ -3405,7 +3426,7 @@
         <v>94</v>
       </c>
       <c r="G86" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H86" t="s">
         <v>244</v>
@@ -3457,7 +3478,7 @@
         <v>227</v>
       </c>
       <c r="G88" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H88" t="s">
         <v>244</v>
@@ -3509,7 +3530,7 @@
         <v>98</v>
       </c>
       <c r="G90" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H90" t="s">
         <v>244</v>
@@ -3587,7 +3608,7 @@
         <v>230</v>
       </c>
       <c r="G93" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H93" t="s">
         <v>244</v>
@@ -3743,7 +3764,7 @@
         <v>107</v>
       </c>
       <c r="G99" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H99" t="s">
         <v>244</v>

--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220420_110217.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220420_110217.xlsx
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>genie</t>
+    <t>Genie</t>
   </si>
   <si>
     <t>2022-04-20</t>

--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220420_110217.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220420_110217.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="272">
   <si>
     <t>사이트</t>
   </si>
@@ -767,9 +767,6 @@
   </si>
   <si>
     <t>인터파크 엔터테인먼트</t>
-  </si>
-  <si>
-    <t>개인</t>
   </si>
   <si>
     <t>neuron music</t>
@@ -2048,7 +2045,7 @@
         <v>196</v>
       </c>
       <c r="G33" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H33" t="s">
         <v>244</v>
@@ -2100,7 +2097,7 @@
         <v>43</v>
       </c>
       <c r="G35" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H35" t="s">
         <v>244</v>
@@ -2126,7 +2123,7 @@
         <v>197</v>
       </c>
       <c r="G36" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H36" t="s">
         <v>244</v>
@@ -2204,7 +2201,7 @@
         <v>47</v>
       </c>
       <c r="G39" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H39" t="s">
         <v>244</v>
@@ -2230,7 +2227,7 @@
         <v>199</v>
       </c>
       <c r="G40" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H40" t="s">
         <v>244</v>
@@ -2282,7 +2279,7 @@
         <v>50</v>
       </c>
       <c r="G42" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H42" t="s">
         <v>244</v>
@@ -2438,7 +2435,7 @@
         <v>202</v>
       </c>
       <c r="G48" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H48" t="s">
         <v>244</v>
@@ -2490,7 +2487,7 @@
         <v>204</v>
       </c>
       <c r="G50" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H50" t="s">
         <v>244</v>
@@ -2542,10 +2539,10 @@
         <v>206</v>
       </c>
       <c r="G52" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H52" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2620,7 +2617,7 @@
         <v>63</v>
       </c>
       <c r="G55" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H55" t="s">
         <v>244</v>
@@ -2646,7 +2643,7 @@
         <v>64</v>
       </c>
       <c r="G56" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H56" t="s">
         <v>244</v>
@@ -2672,7 +2669,7 @@
         <v>209</v>
       </c>
       <c r="G57" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H57" t="s">
         <v>244</v>
@@ -2724,7 +2721,7 @@
         <v>67</v>
       </c>
       <c r="G59" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H59" t="s">
         <v>244</v>
@@ -2750,10 +2747,10 @@
         <v>68</v>
       </c>
       <c r="G60" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H60" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2802,7 +2799,7 @@
         <v>70</v>
       </c>
       <c r="G62" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H62" t="s">
         <v>244</v>
@@ -2828,7 +2825,7 @@
         <v>212</v>
       </c>
       <c r="G63" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H63" t="s">
         <v>244</v>
@@ -2880,7 +2877,7 @@
         <v>213</v>
       </c>
       <c r="G65" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H65" t="s">
         <v>244</v>
@@ -3010,7 +3007,7 @@
         <v>217</v>
       </c>
       <c r="G70" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H70" t="s">
         <v>244</v>
@@ -3062,10 +3059,10 @@
         <v>219</v>
       </c>
       <c r="G72" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H72" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3114,7 +3111,7 @@
         <v>221</v>
       </c>
       <c r="G74" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H74" t="s">
         <v>244</v>
@@ -3140,10 +3137,10 @@
         <v>83</v>
       </c>
       <c r="G75" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H75" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3192,7 +3189,7 @@
         <v>223</v>
       </c>
       <c r="G77" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H77" t="s">
         <v>244</v>
@@ -3244,7 +3241,7 @@
         <v>87</v>
       </c>
       <c r="G79" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H79" t="s">
         <v>244</v>
@@ -3270,7 +3267,7 @@
         <v>224</v>
       </c>
       <c r="G80" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H80" t="s">
         <v>244</v>
@@ -3296,7 +3293,7 @@
         <v>194</v>
       </c>
       <c r="G81" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H81" t="s">
         <v>244</v>
@@ -3374,7 +3371,7 @@
         <v>92</v>
       </c>
       <c r="G84" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H84" t="s">
         <v>244</v>
@@ -3400,7 +3397,7 @@
         <v>93</v>
       </c>
       <c r="G85" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H85" t="s">
         <v>244</v>
@@ -3426,7 +3423,7 @@
         <v>94</v>
       </c>
       <c r="G86" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H86" t="s">
         <v>244</v>
@@ -3478,7 +3475,7 @@
         <v>227</v>
       </c>
       <c r="G88" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H88" t="s">
         <v>244</v>
@@ -3530,7 +3527,7 @@
         <v>98</v>
       </c>
       <c r="G90" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H90" t="s">
         <v>244</v>
@@ -3556,7 +3553,7 @@
         <v>99</v>
       </c>
       <c r="G91" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H91" t="s">
         <v>244</v>
@@ -3608,7 +3605,7 @@
         <v>230</v>
       </c>
       <c r="G93" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H93" t="s">
         <v>244</v>
@@ -3764,7 +3761,7 @@
         <v>107</v>
       </c>
       <c r="G99" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H99" t="s">
         <v>244</v>
